--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Downloads\Softwares\eclipse-jee-2023-06-R-win32-x86_64\JavaClass\Ecom\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31DD5B7-247E-4B0F-8A12-0CF8EAA4F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A331F-8D9C-41BC-B478-23F975E6E8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Mobiles</t>
   </si>
   <si>
-    <t>Iphone</t>
+    <t>IPhone</t>
   </si>
 </sst>
 </file>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Downloads\Softwares\eclipse-jee-2023-06-R-win32-x86_64\JavaClass\Ecom\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A331F-8D9C-41BC-B478-23F975E6E8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A513B55-19EE-433B-8D90-D4BA0FD1DBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Mobiles</t>
   </si>
   <si>
     <t>IPhone</t>
+  </si>
+  <si>
+    <t>Most Expensive</t>
+  </si>
+  <si>
+    <t>Cheapest</t>
+  </si>
+  <si>
+    <t>New Arrivals</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Most Popular</t>
+  </si>
+  <si>
+    <t>Highest Rated</t>
+  </si>
+  <si>
+    <t>Relevance</t>
   </si>
 </sst>
 </file>
@@ -66,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,13 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -366,6 +392,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7500090E-3E30-4019-A994-8DD340CA7184}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Downloads\Softwares\eclipse-jee-2023-06-R-win32-x86_64\JavaClass\Ecom\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A513B55-19EE-433B-8D90-D4BA0FD1DBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB56946-1201-4804-8CDA-D11AEC0C086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14760" yWindow="0" windowWidth="8376" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,9 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7500090E-3E30-4019-A994-8DD340CA7184}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
